--- a/excel/Tables.xlsx
+++ b/excel/Tables.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表4" sheetId="4" r:id="rId2"/>
+    <sheet name="Table 2" sheetId="4" r:id="rId2"/>
     <sheet name="Table S1" sheetId="2" r:id="rId3"/>
     <sheet name="Table S2" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="63">
   <si>
     <t>Habitat</t>
   </si>
@@ -455,23 +455,73 @@
     <t>Macrofauna density, biomass, production, and respiration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Std.Error</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>t-value</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Habitat:Depth</t>
+  </si>
+  <si>
+    <t>Habitat:Cruise</t>
+  </si>
+  <si>
+    <t>Depth:Cruise</t>
+  </si>
+  <si>
+    <t>Note: p-value = 0.000 indicate p-value &lt; 0.0001</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generalized Least Square (GLS) modeling on biomass, production, P/B ratio, respiration, and mess-specific respiration of meiofauna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Production</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mass-specific respiration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P/B ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="11">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
-    <numFmt numFmtId="183" formatCode="0.0_ "/>
-    <numFmt numFmtId="184" formatCode="0.000_ "/>
-    <numFmt numFmtId="185" formatCode="0.0000_ "/>
-    <numFmt numFmtId="186" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="187" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="188" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="189" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="190" formatCode="0_ "/>
-    <numFmt numFmtId="191" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="185" formatCode="0_ "/>
+    <numFmt numFmtId="186" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -566,76 +616,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="185" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -644,61 +694,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AM31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2071,16 +2121,608 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>2.0408366</v>
+      </c>
+      <c r="D5">
+        <v>0.38272669999999998</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>5.3323609999999997</v>
+      </c>
+      <c r="G5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5">
+        <v>1.5987180000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.83053220000000005</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>1.9249320000000001</v>
+      </c>
+      <c r="N5">
+        <v>8.6400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.24434690000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.47429090000000002</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>0.51518399999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.61880000000000002</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4.5810519999999997</v>
+      </c>
+      <c r="K6">
+        <v>1.0292302</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>4.4509499999999997</v>
+      </c>
+      <c r="N6">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2.0880000000000001E-4</v>
+      </c>
+      <c r="D7">
+        <v>5.5020000000000004E-4</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>0.379438</v>
+      </c>
+      <c r="G7">
+        <v>0.71319999999999995</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>6.8999999999999997E-4</v>
+      </c>
+      <c r="K7">
+        <v>1.1938999999999999E-3</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>0.57786400000000004</v>
+      </c>
+      <c r="N7">
+        <v>0.57750000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>-0.53440200000000004</v>
+      </c>
+      <c r="D8">
+        <v>0.48556440000000001</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>-1.100579</v>
+      </c>
+      <c r="G8">
+        <v>0.29959999999999998</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>-0.37017</v>
+      </c>
+      <c r="K8">
+        <v>1.0536942</v>
+      </c>
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>-0.35130699999999998</v>
+      </c>
+      <c r="N8">
+        <v>0.73340000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>-4.6500000000000003E-4</v>
+      </c>
+      <c r="D9">
+        <v>6.9340000000000005E-4</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>-0.67062999999999995</v>
+      </c>
+      <c r="G9">
+        <v>0.51929999999999998</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <v>-1.0219999999999999E-3</v>
+      </c>
+      <c r="K9">
+        <v>1.5047999999999999E-3</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>-0.67916299999999996</v>
+      </c>
+      <c r="N9">
+        <v>0.5141</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>1.3884014</v>
+      </c>
+      <c r="D10">
+        <v>0.33741199999999999</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>4.1148550000000004</v>
+      </c>
+      <c r="G10">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10">
+        <v>-0.30285800000000002</v>
+      </c>
+      <c r="K10">
+        <v>0.73219749999999995</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>-0.413628</v>
+      </c>
+      <c r="N10">
+        <v>0.68879999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>-6.0780000000000003E-4</v>
+      </c>
+      <c r="D11">
+        <v>6.736E-4</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>-0.902312</v>
+      </c>
+      <c r="G11">
+        <v>0.39040000000000002</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11">
+        <v>5.3700000000000004E-4</v>
+      </c>
+      <c r="K11">
+        <v>1.4617E-3</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>0.36707000000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>6.557582</v>
+      </c>
+      <c r="D13">
+        <v>2.4041616000000001</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>2.7275960000000001</v>
+      </c>
+      <c r="G13">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13">
+        <v>1.8323985</v>
+      </c>
+      <c r="K13">
+        <v>0.48577100000000001</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>3.7721450000000001</v>
+      </c>
+      <c r="N13">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>20.468461999999999</v>
+      </c>
+      <c r="D14">
+        <v>2.9793376</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>6.870139</v>
+      </c>
+      <c r="G14">
+        <v>1E-4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2.7309926</v>
+      </c>
+      <c r="K14">
+        <v>0.60198770000000001</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>4.5366249999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>9.2339999999999992E-3</v>
+      </c>
+      <c r="D15">
+        <v>3.4559999999999999E-3</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>2.6718570000000001</v>
+      </c>
+      <c r="G15">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>-2.87E-5</v>
+      </c>
+      <c r="K15">
+        <v>6.9830000000000001E-4</v>
+      </c>
+      <c r="L15">
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <v>-4.1097000000000002E-2</v>
+      </c>
+      <c r="N15">
+        <v>0.96809999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>-0.66455799999999998</v>
+      </c>
+      <c r="D16">
+        <v>3.0501540999999999</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>-0.21787699999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>-0.53446890000000002</v>
+      </c>
+      <c r="K16">
+        <v>0.61629650000000002</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>-0.86722699999999997</v>
+      </c>
+      <c r="N16">
+        <v>0.4083</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <v>1.4415000000000001E-2</v>
+      </c>
+      <c r="D17">
+        <v>4.3559000000000002E-3</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>3.3093370000000002</v>
+      </c>
+      <c r="G17">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17">
+        <v>-2.2921E-3</v>
+      </c>
+      <c r="K17">
+        <v>8.8009999999999998E-4</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <v>-2.6042489999999998</v>
+      </c>
+      <c r="N17">
+        <v>2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>1.5918699999999999</v>
+      </c>
+      <c r="D18">
+        <v>2.1195097999999999</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>0.75105599999999995</v>
+      </c>
+      <c r="G18">
+        <v>0.4718</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18">
+        <v>3.7809799999999998E-2</v>
+      </c>
+      <c r="K18">
+        <v>0.42825590000000002</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>8.8288000000000005E-2</v>
+      </c>
+      <c r="N18">
+        <v>0.93159999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>-7.6169999999999996E-3</v>
+      </c>
+      <c r="D19">
+        <v>4.2310999999999998E-3</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>-1.800324</v>
+      </c>
+      <c r="G19">
+        <v>0.1053</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19">
+        <v>8.2339999999999996E-4</v>
+      </c>
+      <c r="K19">
+        <v>8.5490000000000002E-4</v>
+      </c>
+      <c r="L19">
+        <v>9</v>
+      </c>
+      <c r="M19">
+        <v>0.96314999999999995</v>
+      </c>
+      <c r="N19">
+        <v>0.36059999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excel/Tables.xlsx
+++ b/excel/Tables.xlsx
@@ -14,8 +14,9 @@
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Table 2" sheetId="4" r:id="rId2"/>
-    <sheet name="Table S1" sheetId="2" r:id="rId3"/>
-    <sheet name="Table S2" sheetId="3" r:id="rId4"/>
+    <sheet name="TableS1" sheetId="5" r:id="rId3"/>
+    <sheet name="Table S2" sheetId="2" r:id="rId4"/>
+    <sheet name="Table S3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="78">
   <si>
     <t>Habitat</t>
   </si>
@@ -96,24 +97,6 @@
   </si>
   <si>
     <t>Biomass</t>
-  </si>
-  <si>
-    <t>productionW</t>
-  </si>
-  <si>
-    <t>productionJ</t>
-  </si>
-  <si>
-    <t>productionC</t>
-  </si>
-  <si>
-    <t>respirationW</t>
-  </si>
-  <si>
-    <t>respirationJ</t>
-  </si>
-  <si>
-    <t>respirationC</t>
   </si>
   <si>
     <t>mg</t>
@@ -456,22 +439,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Coefficient</t>
-  </si>
-  <si>
-    <t>Std.Error</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>t-value</t>
-  </si>
-  <si>
     <t>p-value</t>
-  </si>
-  <si>
-    <t>Intercept</t>
   </si>
   <si>
     <t>Habitat:Depth</t>
@@ -486,11 +454,49 @@
     <t>Note: p-value = 0.000 indicate p-value &lt; 0.0001</t>
   </si>
   <si>
-    <t>Biomass</t>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>Respiration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Generalized Least Square (GLS) modeling on biomass, production, P/B ratio, respiration, and mess-specific respiration of meiofauna</t>
+    <t>P/B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductionW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductionJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductionC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RespirationW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RespirationJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RespirationC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-value</t>
+  </si>
+  <si>
+    <t>Biomass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -502,7 +508,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P/B ratio</t>
+    <t>DF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meiofauna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macrofauna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANOVA table of generalized least square (GLS) modeling on biomass, P/B ratio, production,mess-specific respiration, and respiration of meiofauna and macrofauna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Silt</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>TOC</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>over20</t>
+  </si>
+  <si>
+    <t>Trans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Salin </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Por</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,9 +793,6 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,13 +802,43 @@
     <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,7 +1124,7 @@
   <dimension ref="B2:AM31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1173,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" t="s">
@@ -2121,605 +2211,1096 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N20"/>
+  <dimension ref="B2:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="2.375" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="4"/>
+    <col min="10" max="10" width="9" style="5"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="H4" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+    </row>
+    <row r="5" spans="2:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="G5" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>389.87280240000001</v>
+      </c>
+      <c r="E6" s="54">
+        <v>0</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>919.95441870000002</v>
+      </c>
+      <c r="J6" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>27.647138000000002</v>
+      </c>
+      <c r="E7" s="54">
+        <v>5.2209999999999995E-4</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>38.788000099999998</v>
+      </c>
+      <c r="J7" s="54">
+        <v>1.6200000000000001E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8.2899700000000007E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.77992589999999995</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.94587829999999995</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.346194</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.3523322</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.27477649999999998</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.50880360000000002</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.68217669999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.0422653</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.33395239999999998</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>6.2869251000000004</v>
+      </c>
+      <c r="J10" s="54">
+        <v>2.4151599999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.1970773000000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.1074037</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.2875721</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.31479829999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.41207589999999999</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.53692300000000004</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0.49497020000000003</v>
+      </c>
+      <c r="J12" s="20">
+        <v>0.691187</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="G13" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>119.186213</v>
+      </c>
+      <c r="E14" s="54">
+        <v>1.7E-6</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2955.3407111000001</v>
+      </c>
+      <c r="J14" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>15.1376241</v>
+      </c>
+      <c r="E15" s="54">
+        <v>3.6709999999999998E-3</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>21.617391399999999</v>
+      </c>
+      <c r="J15" s="54">
+        <v>3.146E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.2350969</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.6393529</v>
+      </c>
+      <c r="F16" s="46"/>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>97.974705</v>
+      </c>
+      <c r="J16" s="54">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.89780530000000003</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.3681161</v>
+      </c>
+      <c r="F17" s="46"/>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.51167609999999997</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.68031580000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.95496510000000001</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.35399320000000001</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2.8187343</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.11387410000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.98509380000000002</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.34687750000000001</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.7941899</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.51596039999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1.1726783999999999</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.3070097</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="7">
+        <v>3</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0.94069250000000004</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0.4456138</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="46" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="G21" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1339.6874451000001</v>
+      </c>
+      <c r="E22" s="54">
+        <v>0</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1878.5774458000001</v>
+      </c>
+      <c r="J22" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>57.703668800000003</v>
+      </c>
+      <c r="E23" s="54">
+        <v>3.3399999999999999E-5</v>
+      </c>
+      <c r="F23" s="46"/>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>15.676774399999999</v>
+      </c>
+      <c r="J23" s="54">
+        <v>1.2592E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.85528389999999999</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.379191</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>3.262483</v>
+      </c>
+      <c r="J24" s="5">
+        <v>9.0983800000000004E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>14.8580539</v>
+      </c>
+      <c r="E25" s="54">
+        <v>3.8788999999999998E-3</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.72040539999999997</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.55520400000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3.9416373</v>
+      </c>
+      <c r="E26" s="5">
+        <v>7.83808E-2</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>6.8551852999999996</v>
+      </c>
+      <c r="J26" s="54">
+        <v>1.9381800000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>15.160055</v>
+      </c>
+      <c r="E27" s="54">
+        <v>3.6549E-3</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2.0404759000000001</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.1514123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="19">
+        <v>2.2638379999999998</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0.166683</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3</v>
+      </c>
+      <c r="I28" s="19">
+        <v>1.1558854000000001</v>
+      </c>
+      <c r="J28" s="20">
+        <v>0.35908289999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="G29" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>148.0909398</v>
+      </c>
+      <c r="E30" s="54">
+        <v>6.9999999999999997E-7</v>
+      </c>
+      <c r="F30" s="46"/>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1603.6468695999999</v>
+      </c>
+      <c r="J30" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>6.6670294999999999</v>
+      </c>
+      <c r="E31" s="54">
+        <v>2.9596500000000001E-2</v>
+      </c>
+      <c r="F31" s="46"/>
+      <c r="G31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>2.9597600000000002E-2</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.86570599999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>10.447884500000001</v>
+      </c>
+      <c r="E32" s="54">
+        <v>1.0284400000000001E-2</v>
+      </c>
+      <c r="F32" s="46"/>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>109.3284263</v>
+      </c>
+      <c r="J32" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.19140789999999999</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.67205809999999999</v>
+      </c>
+      <c r="F33" s="46"/>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1.2187391000000001</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.33719110000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.63778330000000005</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.44507669999999999</v>
+      </c>
+      <c r="F34" s="46"/>
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>3.9015879</v>
+      </c>
+      <c r="J34" s="5">
+        <v>6.6938399999999995E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.63557280000000005</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.44584049999999997</v>
+      </c>
+      <c r="F35" s="46"/>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0.34550819999999999</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.792879</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.34260459999999998</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0.57271110000000003</v>
+      </c>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="7">
+        <v>3</v>
+      </c>
+      <c r="I36" s="19">
+        <v>9.46549E-2</v>
+      </c>
+      <c r="J36" s="20">
+        <v>0.96181989999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="C37" s="52"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
+      <c r="G37" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5">
-        <v>2.0408366</v>
-      </c>
-      <c r="D5">
-        <v>0.38272669999999998</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>5.3323609999999997</v>
-      </c>
-      <c r="G5">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5">
-        <v>1.5987180000000001</v>
-      </c>
-      <c r="K5">
-        <v>0.83053220000000005</v>
-      </c>
-      <c r="L5">
-        <v>9</v>
-      </c>
-      <c r="M5">
-        <v>1.9249320000000001</v>
-      </c>
-      <c r="N5">
-        <v>8.6400000000000005E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>64.924667999999997</v>
+      </c>
+      <c r="E38" s="54">
+        <v>2.09E-5</v>
+      </c>
+      <c r="F38" s="46"/>
+      <c r="G38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>123.1705827</v>
+      </c>
+      <c r="J38" s="54">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0.24434690000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.47429090000000002</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>0.51518399999999998</v>
-      </c>
-      <c r="G6">
-        <v>0.61880000000000002</v>
-      </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>4.5810519999999997</v>
-      </c>
-      <c r="K6">
-        <v>1.0292302</v>
-      </c>
-      <c r="L6">
-        <v>9</v>
-      </c>
-      <c r="M6">
-        <v>4.4509499999999997</v>
-      </c>
-      <c r="N6">
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>50.813769000000001</v>
+      </c>
+      <c r="E39" s="54">
+        <v>5.49E-5</v>
+      </c>
+      <c r="F39" s="46"/>
+      <c r="G39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>14.8100799</v>
+      </c>
+      <c r="J39" s="54">
+        <v>1.5790999999999999E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>2.0880000000000001E-4</v>
-      </c>
-      <c r="D7">
-        <v>5.5020000000000004E-4</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>0.379438</v>
-      </c>
-      <c r="G7">
-        <v>0.71319999999999995</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>6.2544639999999996</v>
+      </c>
+      <c r="E40" s="54">
+        <v>3.3812300000000003E-2</v>
+      </c>
+      <c r="F40" s="46"/>
+      <c r="G40" t="s">
         <v>5</v>
       </c>
-      <c r="J7">
-        <v>6.8999999999999997E-4</v>
-      </c>
-      <c r="K7">
-        <v>1.1938999999999999E-3</v>
-      </c>
-      <c r="L7">
-        <v>9</v>
-      </c>
-      <c r="M7">
-        <v>0.57786400000000004</v>
-      </c>
-      <c r="N7">
-        <v>0.57750000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="H40" s="1">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>-0.53440200000000004</v>
-      </c>
-      <c r="D8">
-        <v>0.48556440000000001</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>-1.100579</v>
-      </c>
-      <c r="G8">
-        <v>0.29959999999999998</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="I40" s="4">
+        <v>5.9811981000000003</v>
+      </c>
+      <c r="J40" s="54">
+        <v>2.7273499999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>-0.37017</v>
-      </c>
-      <c r="K8">
-        <v>1.0536942</v>
-      </c>
-      <c r="L8">
-        <v>9</v>
-      </c>
-      <c r="M8">
-        <v>-0.35130699999999998</v>
-      </c>
-      <c r="N8">
-        <v>0.73340000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9">
-        <v>-4.6500000000000003E-4</v>
-      </c>
-      <c r="D9">
-        <v>6.9340000000000005E-4</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>-0.67062999999999995</v>
-      </c>
-      <c r="G9">
-        <v>0.51929999999999998</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9">
-        <v>-1.0219999999999999E-3</v>
-      </c>
-      <c r="K9">
-        <v>1.5047999999999999E-3</v>
-      </c>
-      <c r="L9">
-        <v>9</v>
-      </c>
-      <c r="M9">
-        <v>-0.67916299999999996</v>
-      </c>
-      <c r="N9">
-        <v>0.5141</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10">
-        <v>1.3884014</v>
-      </c>
-      <c r="D10">
-        <v>0.33741199999999999</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>4.1148550000000004</v>
-      </c>
-      <c r="G10">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10">
-        <v>-0.30285800000000002</v>
-      </c>
-      <c r="K10">
-        <v>0.73219749999999995</v>
-      </c>
-      <c r="L10">
-        <v>9</v>
-      </c>
-      <c r="M10">
-        <v>-0.413628</v>
-      </c>
-      <c r="N10">
-        <v>0.68879999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11">
-        <v>-6.0780000000000003E-4</v>
-      </c>
-      <c r="D11">
-        <v>6.736E-4</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>-0.902312</v>
-      </c>
-      <c r="G11">
-        <v>0.39040000000000002</v>
-      </c>
-      <c r="I11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11">
-        <v>5.3700000000000004E-4</v>
-      </c>
-      <c r="K11">
-        <v>1.4617E-3</v>
-      </c>
-      <c r="L11">
-        <v>9</v>
-      </c>
-      <c r="M11">
-        <v>0.36707000000000001</v>
-      </c>
-      <c r="N11">
-        <v>0.72199999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13">
-        <v>6.557582</v>
-      </c>
-      <c r="D13">
-        <v>2.4041616000000001</v>
-      </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>2.7275960000000001</v>
-      </c>
-      <c r="G13">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13">
-        <v>1.8323985</v>
-      </c>
-      <c r="K13">
-        <v>0.48577100000000001</v>
-      </c>
-      <c r="L13">
-        <v>9</v>
-      </c>
-      <c r="M13">
-        <v>3.7721450000000001</v>
-      </c>
-      <c r="N13">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>20.468461999999999</v>
-      </c>
-      <c r="D14">
-        <v>2.9793376</v>
-      </c>
-      <c r="E14">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>6.870139</v>
-      </c>
-      <c r="G14">
-        <v>1E-4</v>
-      </c>
-      <c r="I14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>2.7309926</v>
-      </c>
-      <c r="K14">
-        <v>0.60198770000000001</v>
-      </c>
-      <c r="L14">
-        <v>9</v>
-      </c>
-      <c r="M14">
-        <v>4.5366249999999999</v>
-      </c>
-      <c r="N14">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>9.2339999999999992E-3</v>
-      </c>
-      <c r="D15">
-        <v>3.4559999999999999E-3</v>
-      </c>
-      <c r="E15">
-        <v>9</v>
-      </c>
-      <c r="F15">
-        <v>2.6718570000000001</v>
-      </c>
-      <c r="G15">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>-2.87E-5</v>
-      </c>
-      <c r="K15">
-        <v>6.9830000000000001E-4</v>
-      </c>
-      <c r="L15">
-        <v>9</v>
-      </c>
-      <c r="M15">
-        <v>-4.1097000000000002E-2</v>
-      </c>
-      <c r="N15">
-        <v>0.96809999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="C16">
-        <v>-0.66455799999999998</v>
-      </c>
-      <c r="D16">
-        <v>3.0501540999999999</v>
-      </c>
-      <c r="E16">
-        <v>9</v>
-      </c>
-      <c r="F16">
-        <v>-0.21787699999999999</v>
-      </c>
-      <c r="G16">
-        <v>0.83240000000000003</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="D41" s="4">
+        <v>9.5979890000000001</v>
+      </c>
+      <c r="E41" s="54">
+        <v>1.2762300000000001E-2</v>
+      </c>
+      <c r="F41" s="46"/>
+      <c r="G41" t="s">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>-0.53446890000000002</v>
-      </c>
-      <c r="K16">
-        <v>0.61629650000000002</v>
-      </c>
-      <c r="L16">
-        <v>9</v>
-      </c>
-      <c r="M16">
-        <v>-0.86722699999999997</v>
-      </c>
-      <c r="N16">
-        <v>0.4083</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17">
-        <v>1.4415000000000001E-2</v>
-      </c>
-      <c r="D17">
-        <v>4.3559000000000002E-3</v>
-      </c>
-      <c r="E17">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>3.3093370000000002</v>
-      </c>
-      <c r="G17">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="I17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17">
-        <v>-2.2921E-3</v>
-      </c>
-      <c r="K17">
-        <v>8.8009999999999998E-4</v>
-      </c>
-      <c r="L17">
-        <v>9</v>
-      </c>
-      <c r="M17">
-        <v>-2.6042489999999998</v>
-      </c>
-      <c r="N17">
-        <v>2.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18">
-        <v>1.5918699999999999</v>
-      </c>
-      <c r="D18">
-        <v>2.1195097999999999</v>
-      </c>
-      <c r="E18">
-        <v>9</v>
-      </c>
-      <c r="F18">
-        <v>0.75105599999999995</v>
-      </c>
-      <c r="G18">
-        <v>0.4718</v>
-      </c>
-      <c r="I18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18">
-        <v>3.7809799999999998E-2</v>
-      </c>
-      <c r="K18">
-        <v>0.42825590000000002</v>
-      </c>
-      <c r="L18">
-        <v>9</v>
-      </c>
-      <c r="M18">
-        <v>8.8288000000000005E-2</v>
-      </c>
-      <c r="N18">
-        <v>0.93159999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19">
-        <v>-7.6169999999999996E-3</v>
-      </c>
-      <c r="D19">
-        <v>4.2310999999999998E-3</v>
-      </c>
-      <c r="E19">
-        <v>9</v>
-      </c>
-      <c r="F19">
-        <v>-1.800324</v>
-      </c>
-      <c r="G19">
-        <v>0.1053</v>
-      </c>
-      <c r="I19" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19">
-        <v>8.2339999999999996E-4</v>
-      </c>
-      <c r="K19">
-        <v>8.5490000000000002E-4</v>
-      </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <v>0.96314999999999995</v>
-      </c>
-      <c r="N19">
-        <v>0.36059999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
+      <c r="H41" s="1">
+        <v>3</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0.94517260000000003</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.4436157</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>3.7185480000000002</v>
+      </c>
+      <c r="E42" s="5">
+        <v>8.58989E-2</v>
+      </c>
+      <c r="F42" s="46"/>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>8.3259345000000007</v>
+      </c>
+      <c r="J42" s="54">
+        <v>1.1323400000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>6.1691909999999996</v>
+      </c>
+      <c r="E43" s="54">
+        <v>3.4774800000000002E-2</v>
+      </c>
+      <c r="F43" s="46"/>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3</v>
+      </c>
+      <c r="I43" s="4">
+        <v>2.3876246000000001</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.1097212</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44" s="19">
+        <v>1.187584</v>
+      </c>
+      <c r="E44" s="20">
+        <v>0.30413410000000002</v>
+      </c>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="7">
+        <v>3</v>
+      </c>
+      <c r="I44" s="19">
+        <v>1.1768109</v>
+      </c>
+      <c r="J44" s="20">
+        <v>0.35163620000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="46"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F46" s="46"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F47" s="46"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="H4:J4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2728,10 +3309,1598 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="4.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="4" customWidth="1"/>
+    <col min="14" max="15" width="5.625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1096</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3">
+        <v>15.502183</v>
+      </c>
+      <c r="E3" s="3">
+        <v>34.505049999999997</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.7129370000000002</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>75.2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5.5089819999999996</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.35768220000000001</v>
+      </c>
+      <c r="M3" s="4">
+        <v>6.4927100000000001E-2</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.50434800000000002</v>
+      </c>
+      <c r="O3" s="4">
+        <v>3.4595000000000001E-2</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1096</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8.5310170000000003</v>
+      </c>
+      <c r="E4" s="3">
+        <v>34.424900000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.602903</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.3771333</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I4" s="3">
+        <v>30.64</v>
+      </c>
+      <c r="J4" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4.5798319999999997</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.21585670000000001</v>
+      </c>
+      <c r="M4" s="4">
+        <v>4.7132E-2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.46915370000000001</v>
+      </c>
+      <c r="O4" s="4">
+        <v>9.0060200000000007E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.41724620000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1096</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8.989217</v>
+      </c>
+      <c r="E5" s="3">
+        <v>34.425629999999998</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.6671429999999998</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="J5" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5.5731710000000003</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.34901320000000002</v>
+      </c>
+      <c r="M5" s="4">
+        <v>6.2623799999999993E-2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.51593250000000002</v>
+      </c>
+      <c r="O5" s="4">
+        <v>7.4523199999999998E-2</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.27816410000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1102</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
+        <v>14.487233</v>
+      </c>
+      <c r="E6" s="3">
+        <v>34.53378</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.5850900000000001</v>
+      </c>
+      <c r="G6" s="3">
+        <v>21.606200000000001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45.63</v>
+      </c>
+      <c r="J6" s="3">
+        <v>44.4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5.4758069999999996</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.26915319999999998</v>
+      </c>
+      <c r="M6" s="4">
+        <v>4.9153200000000001E-2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.42486269999999998</v>
+      </c>
+      <c r="O6" s="4">
+        <v>9.8562399999999994E-2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>6.5277778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1102</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8.5635999999999992</v>
+      </c>
+      <c r="E7" s="3">
+        <v>34.434919999999998</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.6250599999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>32.611466700000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I7" s="3">
+        <v>6.42</v>
+      </c>
+      <c r="J7" s="3">
+        <v>92.44</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4.6363640000000004</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.24340909999999999</v>
+      </c>
+      <c r="M7" s="4">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.26722879999999999</v>
+      </c>
+      <c r="O7" s="4">
+        <v>8.8207800000000003E-2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>6.5277778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1102</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7.8469829999999998</v>
+      </c>
+      <c r="E8" s="3">
+        <v>34.435679999999998</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3.482027</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43.310766700000002</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="I8" s="3">
+        <v>53.8</v>
+      </c>
+      <c r="J8" s="3">
+        <v>33.5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>6.219697</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.38384420000000002</v>
+      </c>
+      <c r="M8" s="4">
+        <v>6.17143E-2</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.44714330000000002</v>
+      </c>
+      <c r="O8" s="4">
+        <v>8.9247199999999999E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.83333330000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1102</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.3239000000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>34.521729999999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.16568</v>
+      </c>
+      <c r="G9" s="3">
+        <v>66.807866700000005</v>
+      </c>
+      <c r="H9" s="3">
+        <v>21.7</v>
+      </c>
+      <c r="I9" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K9" s="3">
+        <v>6.0679610000000004</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.56224390000000002</v>
+      </c>
+      <c r="M9" s="4">
+        <v>9.2657799999999998E-2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.54857129999999998</v>
+      </c>
+      <c r="O9" s="4">
+        <v>8.3318699999999996E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1114</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>13.176500000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>34.492899999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.3221800000000004</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4.3653667</v>
+      </c>
+      <c r="H10" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>61.1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>25.6</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5.9257140000000001</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.4271452</v>
+      </c>
+      <c r="M10" s="4">
+        <v>7.2083300000000003E-2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.64031369999999999</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.106519</v>
+      </c>
+      <c r="P10" s="4">
+        <v>8.4722221999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1114</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8.642417</v>
+      </c>
+      <c r="E11" s="3">
+        <v>34.426879999999997</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.5482</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.0380332999999999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="J11" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>5.9818179999999996</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.44921149999999999</v>
+      </c>
+      <c r="M11" s="4">
+        <v>7.5096200000000002E-2</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.64046420000000004</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.1011488</v>
+      </c>
+      <c r="P11" s="4">
+        <v>7.2222222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1114</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8.0394000000000005</v>
+      </c>
+      <c r="E12" s="3">
+        <v>34.427199999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.408563</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>34.1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>65.87</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6.743017</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.50705690000000003</v>
+      </c>
+      <c r="M12" s="4">
+        <v>7.5197299999999995E-2</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.69021370000000004</v>
+      </c>
+      <c r="O12" s="4">
+        <v>9.1784000000000004E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1.8055555999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1114</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3.968067</v>
+      </c>
+      <c r="E13" s="3">
+        <v>34.532919999999997</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3.1047530000000001</v>
+      </c>
+      <c r="G13" s="3">
+        <v>49.108333299999998</v>
+      </c>
+      <c r="H13" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>6.6790700000000003</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.58188629999999997</v>
+      </c>
+      <c r="M13" s="4">
+        <v>8.7120900000000001E-2</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.75747609999999999</v>
+      </c>
+      <c r="O13" s="4">
+        <v>8.9022900000000002E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1.3888889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1126</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12.422617000000001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>34.504629999999999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.4291169999999997</v>
+      </c>
+      <c r="G14" s="3">
+        <v>19.2186333</v>
+      </c>
+      <c r="H14" s="3">
+        <v>21</v>
+      </c>
+      <c r="I14" s="3">
+        <v>77.2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>5.752688</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.43288979999999999</v>
+      </c>
+      <c r="M14" s="4">
+        <v>7.5249999999999997E-2</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.60737929999999996</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.1065475</v>
+      </c>
+      <c r="P14" s="4">
+        <v>4.1666667000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1126</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7.3685499999999999</v>
+      </c>
+      <c r="E15" s="3">
+        <v>34.442050000000002</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3.4732769999999999</v>
+      </c>
+      <c r="G15" s="3">
+        <v>42.522766699999998</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4.68</v>
+      </c>
+      <c r="I15" s="3">
+        <v>54.52</v>
+      </c>
+      <c r="J15" s="3">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5.5126049999999998</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.28709469999999998</v>
+      </c>
+      <c r="M15" s="4">
+        <v>5.20797E-2</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.53543589999999996</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.1040952</v>
+      </c>
+      <c r="P15" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1126</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3">
+        <v>7.532883</v>
+      </c>
+      <c r="E16" s="3">
+        <v>34.439050000000002</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3.4870869999999998</v>
+      </c>
+      <c r="G16" s="3">
+        <v>61.1616</v>
+      </c>
+      <c r="H16" s="3">
+        <v>22.3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>5.44</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.44784499999999999</v>
+      </c>
+      <c r="M16" s="4">
+        <v>8.2324499999999995E-2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.74162839999999997</v>
+      </c>
+      <c r="O16" s="4">
+        <v>9.0469599999999997E-2</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1.3888889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1126</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.9846170000000001</v>
+      </c>
+      <c r="E17" s="3">
+        <v>34.53707</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3.18642</v>
+      </c>
+      <c r="G17" s="3">
+        <v>51.216299999999997</v>
+      </c>
+      <c r="H17" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="I17" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5.6995709999999997</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.55052190000000001</v>
+      </c>
+      <c r="M17" s="4">
+        <v>9.6590099999999998E-2</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.77590110000000001</v>
+      </c>
+      <c r="O17" s="4">
+        <v>7.3863600000000001E-2</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.13888890000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1096</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3">
+        <v>14.790117</v>
+      </c>
+      <c r="E18" s="3">
+        <v>34.550919999999998</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.9782970000000004</v>
+      </c>
+      <c r="G18" s="3">
+        <v>84.500866700000003</v>
+      </c>
+      <c r="H18" s="3">
+        <v>21.2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="K18" s="3">
+        <v>5.4957630000000002</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.48606739999999998</v>
+      </c>
+      <c r="M18" s="4">
+        <v>8.8443999999999995E-2</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.58811080000000004</v>
+      </c>
+      <c r="O18" s="4">
+        <v>6.2889E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1096</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3">
+        <v>9.8132000000000001</v>
+      </c>
+      <c r="E19" s="3">
+        <v>34.436369999999997</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.0074370000000004</v>
+      </c>
+      <c r="G19" s="3">
+        <v>75.339600000000004</v>
+      </c>
+      <c r="H19" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="I19" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K19" s="3">
+        <v>5.6415090000000001</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.64607340000000002</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.1145214</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.64349699999999999</v>
+      </c>
+      <c r="O19" s="4">
+        <v>6.6406400000000004E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1096</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6.372217</v>
+      </c>
+      <c r="E20" s="3">
+        <v>34.440649999999998</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3.2287469999999998</v>
+      </c>
+      <c r="G20" s="3">
+        <v>87.325699999999998</v>
+      </c>
+      <c r="H20" s="3">
+        <v>26.4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>5.5113640000000004</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.62849109999999997</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.1140355</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.63787740000000004</v>
+      </c>
+      <c r="O20" s="4">
+        <v>4.7569500000000001E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1102</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>14.183767</v>
+      </c>
+      <c r="E21" s="3">
+        <v>34.527700000000003</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5.0076270000000003</v>
+      </c>
+      <c r="G21" s="3">
+        <v>87.884666699999997</v>
+      </c>
+      <c r="H21" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>5.8388629999999999</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.57342550000000003</v>
+      </c>
+      <c r="M21" s="4">
+        <v>9.8208400000000001E-2</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.57324770000000003</v>
+      </c>
+      <c r="O21" s="4">
+        <v>8.5348499999999994E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>2.0833333000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1102</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3">
+        <v>9.4762500000000003</v>
+      </c>
+      <c r="E22" s="3">
+        <v>34.415349999999997</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3.838797</v>
+      </c>
+      <c r="G22" s="3">
+        <v>86.661933300000001</v>
+      </c>
+      <c r="H22" s="3">
+        <v>20.7</v>
+      </c>
+      <c r="I22" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5.8719999999999999</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.6561515</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.11174240000000001</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.65549089999999999</v>
+      </c>
+      <c r="O22" s="4">
+        <v>6.2389899999999998E-2</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1102</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3">
+        <v>7.1596830000000002</v>
+      </c>
+      <c r="E23" s="3">
+        <v>34.395049999999998</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3.3037369999999999</v>
+      </c>
+      <c r="G23" s="3">
+        <v>89.211399999999998</v>
+      </c>
+      <c r="H23" s="3">
+        <v>22.3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="K23" s="3">
+        <v>5.6861920000000001</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.60305620000000004</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.1060562</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.63452699999999995</v>
+      </c>
+      <c r="O23" s="4">
+        <v>5.9113600000000002E-2</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1102</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5.9009999999999998</v>
+      </c>
+      <c r="E24" s="3">
+        <v>34.443049999999999</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3.1208100000000001</v>
+      </c>
+      <c r="G24" s="3">
+        <v>85.807766700000002</v>
+      </c>
+      <c r="H24" s="3">
+        <v>26.1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>72.7</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K24" s="3">
+        <v>6.2909090000000001</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.74721280000000001</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.1187766</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0.67105530000000002</v>
+      </c>
+      <c r="O24" s="4">
+        <v>9.3808600000000006E-2</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0.4166667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1114</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3">
+        <v>13.706182999999999</v>
+      </c>
+      <c r="E25" s="3">
+        <v>34.521850000000001</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4.6008269999999998</v>
+      </c>
+      <c r="G25" s="3">
+        <v>76.946333300000006</v>
+      </c>
+      <c r="H25" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="I25" s="3">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="J25" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K25" s="3">
+        <v>6.197044</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.5259876</v>
+      </c>
+      <c r="M25" s="4">
+        <v>8.48772E-2</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.66673309999999997</v>
+      </c>
+      <c r="O25" s="4">
+        <v>8.35539E-2</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1.8055555999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1114</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3">
+        <v>10.248417</v>
+      </c>
+      <c r="E26" s="3">
+        <v>34.423879999999997</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3.9145400000000001</v>
+      </c>
+      <c r="G26" s="3">
+        <v>87.282066700000001</v>
+      </c>
+      <c r="H26" s="3">
+        <v>19.8</v>
+      </c>
+      <c r="I26" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="K26" s="3">
+        <v>6.2156130000000003</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.66770240000000003</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.1074234</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.77530100000000002</v>
+      </c>
+      <c r="O26" s="4">
+        <v>6.3058400000000001E-2</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0.13888890000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1114</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3">
+        <v>6.8635330000000003</v>
+      </c>
+      <c r="E27" s="3">
+        <v>34.425249999999998</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3.1587499999999999</v>
+      </c>
+      <c r="G27" s="3">
+        <v>86.541966700000003</v>
+      </c>
+      <c r="H27" s="3">
+        <v>24.3</v>
+      </c>
+      <c r="I27" s="3">
+        <v>74</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="K27" s="3">
+        <v>6.2099640000000003</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.75956219999999997</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.12231350000000001</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.77143779999999995</v>
+      </c>
+      <c r="O27" s="4">
+        <v>5.1823899999999999E-2</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1114</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5.9053829999999996</v>
+      </c>
+      <c r="E28" s="3">
+        <v>34.44097</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3.0011899999999998</v>
+      </c>
+      <c r="G28" s="3">
+        <v>83.646666699999997</v>
+      </c>
+      <c r="H28" s="3">
+        <v>22.4</v>
+      </c>
+      <c r="I28" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="K28" s="3">
+        <v>6.7434209999999997</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.78050459999999999</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.1157431</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.83745860000000005</v>
+      </c>
+      <c r="O28" s="4">
+        <v>7.6894500000000005E-2</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1126</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3">
+        <v>13.885133</v>
+      </c>
+      <c r="E29" s="3">
+        <v>34.526269999999997</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4.9668999999999999</v>
+      </c>
+      <c r="G29" s="3">
+        <v>83.5985333</v>
+      </c>
+      <c r="H29" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="I29" s="3">
+        <v>77</v>
+      </c>
+      <c r="J29" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K29" s="3">
+        <v>6.1050230000000001</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.57138140000000004</v>
+      </c>
+      <c r="M29" s="4">
+        <v>9.3591999999999995E-2</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.72506190000000004</v>
+      </c>
+      <c r="O29" s="4">
+        <v>8.5952100000000003E-2</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1.9444444000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1126</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3">
+        <v>9.0437829999999995</v>
+      </c>
+      <c r="E30" s="3">
+        <v>34.412820000000004</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3.8354699999999999</v>
+      </c>
+      <c r="G30" s="3">
+        <v>84.770566700000003</v>
+      </c>
+      <c r="H30" s="3">
+        <v>21.3</v>
+      </c>
+      <c r="I30" s="3">
+        <v>76.7</v>
+      </c>
+      <c r="J30" s="3">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3">
+        <v>5.8786769999999997</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.67090910000000004</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.1141259</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.73801700000000003</v>
+      </c>
+      <c r="O30" s="4">
+        <v>6.2979300000000002E-2</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0.27777780000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1126</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="3">
+        <v>6.3808170000000004</v>
+      </c>
+      <c r="E31" s="3">
+        <v>34.448219999999999</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3.2570800000000002</v>
+      </c>
+      <c r="G31" s="3">
+        <v>87.096800000000002</v>
+      </c>
+      <c r="H31" s="3">
+        <v>23.9</v>
+      </c>
+      <c r="I31" s="3">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>5.4947369999999998</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.6451479</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.117412</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0.73887789999999998</v>
+      </c>
+      <c r="O31" s="4">
+        <v>5.6057599999999999E-2</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1126</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="18">
+        <v>5.5377669999999997</v>
+      </c>
+      <c r="E32" s="18">
+        <v>34.474220000000003</v>
+      </c>
+      <c r="F32" s="18">
+        <v>3.154007</v>
+      </c>
+      <c r="G32" s="18">
+        <v>86.607666699999996</v>
+      </c>
+      <c r="H32" s="18">
+        <v>26</v>
+      </c>
+      <c r="I32" s="18">
+        <v>73.2</v>
+      </c>
+      <c r="J32" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="K32" s="18">
+        <v>6.2531249999999998</v>
+      </c>
+      <c r="L32" s="18">
+        <v>0.78360839999999998</v>
+      </c>
+      <c r="M32" s="19">
+        <v>0.1253147</v>
+      </c>
+      <c r="N32" s="19">
+        <v>0.81072219999999995</v>
+      </c>
+      <c r="O32" s="19">
+        <v>7.3291499999999996E-2</v>
+      </c>
+      <c r="P32" s="19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:P32">
+    <sortCondition ref="A3:A32"/>
+    <sortCondition ref="B3:B32"/>
+    <sortCondition ref="C3:C32"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2764,7 +4933,7 @@
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -2784,7 +4953,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>22</v>
@@ -2793,52 +4962,52 @@
         <v>10</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="T3" s="37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="V3" s="37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W3" s="34" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="X3" s="38" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="19.5" x14ac:dyDescent="0.25">
@@ -2847,43 +5016,43 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N4" s="18"/>
       <c r="O4" s="17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="R4" s="21"/>
       <c r="S4" s="18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T4" s="22"/>
       <c r="U4" s="18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="V4" s="22"/>
       <c r="W4" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="X4" s="23"/>
     </row>
@@ -4983,12 +7152,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="H32" sqref="H31:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5010,18 +7179,18 @@
     <col min="15" max="15" width="12.375" style="12" customWidth="1"/>
     <col min="16" max="16" width="5.75" style="14" customWidth="1"/>
     <col min="17" max="17" width="6.5" style="16" customWidth="1"/>
-    <col min="18" max="18" width="7.125" style="43" customWidth="1"/>
+    <col min="18" max="18" width="7.125" style="42" customWidth="1"/>
     <col min="19" max="19" width="12.75" style="14" customWidth="1"/>
     <col min="20" max="20" width="7.625" style="16" customWidth="1"/>
     <col min="21" max="21" width="13" style="14" customWidth="1"/>
     <col min="22" max="22" width="6.5" style="16" customWidth="1"/>
     <col min="23" max="23" width="12.625" style="16" customWidth="1"/>
-    <col min="24" max="24" width="7.25" style="43" customWidth="1"/>
+    <col min="24" max="24" width="7.25" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -5040,62 +7209,62 @@
       <c r="E3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>10</v>
+      <c r="F3" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>30</v>
+      <c r="I3" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="M3" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="38" t="s">
+      <c r="O3" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="44" t="s">
-        <v>35</v>
+      <c r="R3" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="38" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="19.5" x14ac:dyDescent="0.25">
@@ -5104,45 +7273,45 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="21"/>
+      <c r="S4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41" t="s">
+      <c r="T4" s="22"/>
+      <c r="U4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="17" t="s">
+      <c r="V4" s="22"/>
+      <c r="W4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="45"/>
+      <c r="X4" s="23"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -5160,13 +7329,13 @@
       <c r="E5" s="39">
         <v>698753.86</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <v>261207.361</v>
       </c>
       <c r="G5" s="39">
         <v>369.20070600000003</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="41">
         <v>185.21005099999999</v>
       </c>
       <c r="I5" s="11">
@@ -5196,7 +7365,7 @@
       <c r="Q5" s="15">
         <v>0.14721419999999999</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5" s="44">
         <v>8.8249999999999995E-3</v>
       </c>
       <c r="S5" s="13">
@@ -5214,7 +7383,7 @@
       <c r="W5" s="15">
         <v>0.1040724</v>
       </c>
-      <c r="X5" s="46">
+      <c r="X5" s="44">
         <v>3.8379999999999997E-2</v>
       </c>
     </row>
@@ -5270,7 +7439,7 @@
       <c r="Q6" s="15">
         <v>0.1206129</v>
       </c>
-      <c r="R6" s="46">
+      <c r="R6" s="44">
         <v>1.3865799999999999E-2</v>
       </c>
       <c r="S6" s="13">
@@ -5288,7 +7457,7 @@
       <c r="W6" s="15">
         <v>1.64224E-2</v>
       </c>
-      <c r="X6" s="46">
+      <c r="X6" s="44">
         <v>3.5996000000000001E-3</v>
       </c>
     </row>
@@ -5344,7 +7513,7 @@
       <c r="Q7" s="15">
         <v>9.6854499999999996E-2</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="44">
         <v>1.8671E-3</v>
       </c>
       <c r="S7" s="13">
@@ -5362,7 +7531,7 @@
       <c r="W7" s="15">
         <v>7.8342499999999995E-2</v>
       </c>
-      <c r="X7" s="46">
+      <c r="X7" s="44">
         <v>2.7637700000000001E-2</v>
       </c>
     </row>
@@ -5418,7 +7587,7 @@
       <c r="Q8" s="15">
         <v>8.7927099999999994E-2</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="44">
         <v>1.0352099999999999E-2</v>
       </c>
       <c r="S8" s="13">
@@ -5436,7 +7605,7 @@
       <c r="W8" s="15">
         <v>3.0164300000000002E-2</v>
       </c>
-      <c r="X8" s="46">
+      <c r="X8" s="44">
         <v>5.2110999999999998E-3</v>
       </c>
     </row>
@@ -5492,7 +7661,7 @@
       <c r="Q9" s="15">
         <v>0.2462239</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9" s="44">
         <v>3.1141100000000001E-2</v>
       </c>
       <c r="S9" s="13">
@@ -5510,7 +7679,7 @@
       <c r="W9" s="15">
         <v>6.5820999999999996E-3</v>
       </c>
-      <c r="X9" s="46">
+      <c r="X9" s="44">
         <v>5.7989999999999995E-4</v>
       </c>
     </row>
@@ -5566,7 +7735,7 @@
       <c r="Q10" s="15">
         <v>9.7997299999999996E-2</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="44">
         <v>4.7920999999999997E-3</v>
       </c>
       <c r="S10" s="13">
@@ -5584,7 +7753,7 @@
       <c r="W10" s="15">
         <v>8.7781999999999999E-3</v>
       </c>
-      <c r="X10" s="46">
+      <c r="X10" s="44">
         <v>2.0609000000000001E-3</v>
       </c>
     </row>
@@ -5640,7 +7809,7 @@
       <c r="Q11" s="15">
         <v>0.1133387</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="44">
         <v>1.11606E-2</v>
       </c>
       <c r="S11" s="13">
@@ -5658,7 +7827,7 @@
       <c r="W11" s="15">
         <v>1.09E-2</v>
       </c>
-      <c r="X11" s="46">
+      <c r="X11" s="44">
         <v>4.0079E-3</v>
       </c>
     </row>
@@ -5702,7 +7871,7 @@
       <c r="Q12" s="15">
         <v>7.4607199999999999E-2</v>
       </c>
-      <c r="R12" s="46"/>
+      <c r="R12" s="44"/>
       <c r="S12" s="13">
         <v>5.7872600000000003E-2</v>
       </c>
@@ -5714,7 +7883,7 @@
       <c r="W12" s="15">
         <v>1.87412E-2</v>
       </c>
-      <c r="X12" s="46"/>
+      <c r="X12" s="44"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -5768,7 +7937,7 @@
       <c r="Q13" s="15">
         <v>0.1170673</v>
       </c>
-      <c r="R13" s="46">
+      <c r="R13" s="44">
         <v>3.0457000000000001E-3</v>
       </c>
       <c r="S13" s="13">
@@ -5786,7 +7955,7 @@
       <c r="W13" s="15">
         <v>0.2565945</v>
       </c>
-      <c r="X13" s="46">
+      <c r="X13" s="44">
         <v>2.4089300000000001E-2</v>
       </c>
     </row>
@@ -5842,7 +8011,7 @@
       <c r="Q14" s="15">
         <v>9.3893299999999999E-2</v>
       </c>
-      <c r="R14" s="46">
+      <c r="R14" s="44">
         <v>4.9446000000000004E-3</v>
       </c>
       <c r="S14" s="13">
@@ -5860,7 +8029,7 @@
       <c r="W14" s="15">
         <v>0.18618080000000001</v>
       </c>
-      <c r="X14" s="46">
+      <c r="X14" s="44">
         <v>3.9146300000000002E-2</v>
       </c>
     </row>
@@ -5916,7 +8085,7 @@
       <c r="Q15" s="15">
         <v>6.2259200000000001E-2</v>
       </c>
-      <c r="R15" s="46">
+      <c r="R15" s="44">
         <v>6.6385999999999997E-3</v>
       </c>
       <c r="S15" s="13">
@@ -5934,7 +8103,7 @@
       <c r="W15" s="15">
         <v>9.2270699999999997E-2</v>
       </c>
-      <c r="X15" s="46">
+      <c r="X15" s="44">
         <v>1.9158100000000001E-2</v>
       </c>
     </row>
@@ -5990,7 +8159,7 @@
       <c r="Q16" s="15">
         <v>5.8626200000000003E-2</v>
       </c>
-      <c r="R16" s="46">
+      <c r="R16" s="44">
         <v>3.9918999999999996E-3</v>
       </c>
       <c r="S16" s="13">
@@ -6008,7 +8177,7 @@
       <c r="W16" s="15">
         <v>0.15271750000000001</v>
       </c>
-      <c r="X16" s="46">
+      <c r="X16" s="44">
         <v>5.0268399999999998E-2</v>
       </c>
     </row>
@@ -6064,7 +8233,7 @@
       <c r="Q17" s="15">
         <v>9.7241800000000003E-2</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="44">
         <v>4.2201000000000001E-3</v>
       </c>
       <c r="S17" s="13">
@@ -6082,7 +8251,7 @@
       <c r="W17" s="15">
         <v>0.2206119</v>
       </c>
-      <c r="X17" s="46">
+      <c r="X17" s="44">
         <v>2.2206900000000002E-2</v>
       </c>
     </row>
@@ -6138,7 +8307,7 @@
       <c r="Q18" s="15">
         <v>6.8916900000000003E-2</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18" s="44">
         <v>3.5303000000000001E-3</v>
       </c>
       <c r="S18" s="13">
@@ -6156,7 +8325,7 @@
       <c r="W18" s="15">
         <v>0.30791370000000001</v>
       </c>
-      <c r="X18" s="46">
+      <c r="X18" s="44">
         <v>8.3520499999999998E-2</v>
       </c>
     </row>
@@ -6212,7 +8381,7 @@
       <c r="Q19" s="15">
         <v>7.3421700000000006E-2</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="44">
         <v>9.0568999999999997E-3</v>
       </c>
       <c r="S19" s="13">
@@ -6230,7 +8399,7 @@
       <c r="W19" s="15">
         <v>5.96029E-2</v>
       </c>
-      <c r="X19" s="46">
+      <c r="X19" s="44">
         <v>1.52411E-2</v>
       </c>
     </row>
@@ -6250,34 +8419,34 @@
       <c r="E20" s="17">
         <v>552755.73</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="40">
         <v>73266.255000000005</v>
       </c>
       <c r="G20" s="17">
         <v>494.62265400000001</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="40">
         <v>147.77486400000001</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="40">
         <v>5.5090469999999998</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="40">
         <v>0.1976716</v>
       </c>
       <c r="K20" s="17">
         <v>25.944610000000001</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="40">
         <v>2.4595790000000002</v>
       </c>
       <c r="M20" s="17">
         <v>119.66517</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="40">
         <v>7.4912172000000004</v>
       </c>
-      <c r="O20" s="41">
+      <c r="O20" s="40">
         <v>2.6451283999999999</v>
       </c>
       <c r="P20" s="22">
@@ -6286,7 +8455,7 @@
       <c r="Q20" s="23">
         <v>6.8600700000000001E-2</v>
       </c>
-      <c r="R20" s="45">
+      <c r="R20" s="43">
         <v>2.5178000000000002E-3</v>
       </c>
       <c r="S20" s="22">
@@ -6304,7 +8473,7 @@
       <c r="W20" s="23">
         <v>3.5907599999999998E-2</v>
       </c>
-      <c r="X20" s="45">
+      <c r="X20" s="43">
         <v>6.2696000000000002E-3</v>
       </c>
     </row>
